--- a/medicine/Psychotrope/Kanterbräu/Kanterbräu.xlsx
+++ b/medicine/Psychotrope/Kanterbräu/Kanterbräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kanterbr%C3%A4u</t>
+          <t>Kanterbräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kanterbräu est une marque de bière d'origine lorraine appartenant aujourd'hui aux Brasseries Kronenbourg, brasseur alsacien installé à Obernai dans le Bas-Rhin et faisant partie du groupe danois Carlsberg.
 La Kanterbräu originale est une bière blonde à 4,2 %, elle contient du malt d'orge, du malt de blé et du blé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kanterbr%C3%A4u</t>
+          <t>Kanterbräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1936 la brasserie de Charmes passe un accord de fabrication avec un brasseur allemand, le docteur Hans Kanter (1874-1937), et lance la bière Kanterbräu.
 La brasserie de Charmes intègre la Société européenne de brasserie en 1966. La brasserie est définitivement fermée en 1971, la production de la Kanterbräu est alors transférée à la brasserie de Champigneulles.
-La Kanterbräu Gold, bière blonde issue d'une double fermentation, est lancée en 1977. Elle est renommée 1664 Gold en 2009[1].
+La Kanterbräu Gold, bière blonde issue d'une double fermentation, est lancée en 1977. Elle est renommée 1664 Gold en 2009.
 En 1986, la brasserie de Champigneulles fusionne avec les Kronenbourg, la marque Kanterbräu appartient depuis cette date aux Brasseries Kronenbourg. La Kanterbräu a également été produite par la brasserie de Rennes.
 En 2006, Kronenbourg revend la brasserie de Champigneulles au groupe allemand TCB Beverages. Depuis fin 2006 la Kanterbräu est produite à la brasserie Kronenbourg d'Obernai.
 Kronenbourg possédait également la chaîne de restaurants Taverne de maître Kanter, appartenant aujourd'hui au groupe Flo.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kanterbr%C3%A4u</t>
+          <t>Kanterbräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1986, désireux de diversifier ses expériences professionnelles, le chanteur Renaud réalise une publicité pour Kanterbräu[2]. Le spot, où il apparaît en compagnie de Jean-Louis Roques, reprend la mélodie de la chanson Germaine. Il regretta ensuite d'avoir ainsi incité à la consommation d'alcool[3] et reversa les 900 000 francs ainsi gagnés au Muséum national d'histoire naturelle, pour participer à la rénovation de la galerie de Zoologie et y organiser le spectacle Fauve qui peut[4]. La galerie de Zoologie, en état de délabrement depuis de nombreuses années, était fermée au public depuis 1965[l 1]. Après rénovation, ce bâtiment du Jardin des plantes rouvrit ses portes au public en 1994 sous le nom de grande galerie de l'Évolution, nom qu'il conserve encore actuellement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1986, désireux de diversifier ses expériences professionnelles, le chanteur Renaud réalise une publicité pour Kanterbräu. Le spot, où il apparaît en compagnie de Jean-Louis Roques, reprend la mélodie de la chanson Germaine. Il regretta ensuite d'avoir ainsi incité à la consommation d'alcool et reversa les 900 000 francs ainsi gagnés au Muséum national d'histoire naturelle, pour participer à la rénovation de la galerie de Zoologie et y organiser le spectacle Fauve qui peut. La galerie de Zoologie, en état de délabrement depuis de nombreuses années, était fermée au public depuis 1965[l 1]. Après rénovation, ce bâtiment du Jardin des plantes rouvrit ses portes au public en 1994 sous le nom de grande galerie de l'Évolution, nom qu'il conserve encore actuellement.
 </t>
         </is>
       </c>
